--- a/data/MolecularLab_6_2024.xlsx
+++ b/data/MolecularLab_6_2024.xlsx
@@ -2042,19 +2042,19 @@
         <v/>
       </c>
       <c r="M8" s="1" t="n">
-        <v/>
+        <v>5</v>
       </c>
       <c r="N8" s="1" t="n">
         <v/>
       </c>
       <c r="O8" s="1" t="n">
-        <v/>
+        <v>11</v>
       </c>
       <c r="P8" s="1" t="n">
         <v/>
       </c>
       <c r="Q8" s="1" t="n">
-        <v/>
+        <v>8</v>
       </c>
       <c r="R8" s="1" t="n">
         <v/>
@@ -2099,7 +2099,7 @@
         <v/>
       </c>
       <c r="AF8" s="1" t="n">
-        <v/>
+        <v>3</v>
       </c>
       <c r="AG8" s="1" t="n">
         <v/>
@@ -2144,7 +2144,7 @@
         <v/>
       </c>
       <c r="AU8" s="1" t="n">
-        <v/>
+        <v>8</v>
       </c>
       <c r="AV8" s="1" t="n">
         <v/>
@@ -2153,10 +2153,10 @@
         <v/>
       </c>
       <c r="AX8" s="1" t="n">
-        <v/>
+        <v>10</v>
       </c>
       <c r="AY8" s="1" t="n">
-        <v/>
+        <v>2</v>
       </c>
       <c r="AZ8" s="1" t="n">
         <v/>
@@ -2180,10 +2180,10 @@
         <v/>
       </c>
       <c r="BG8" s="1" t="n">
-        <v/>
+        <v>1.5</v>
       </c>
       <c r="BH8" s="1" t="n">
-        <v/>
+        <v>6</v>
       </c>
       <c r="BI8" s="1" t="n"/>
       <c r="BJ8" s="1" t="n"/>
